--- a/Packages/cn.etetet.startconfig/Luban/Moba/Datas/StartProcess.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Moba/Datas/StartProcess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Moba/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106E4057-2F5F-544D-9785-A1F3891CEC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C34DFF-1F4A-684D-AEB3-4D39B4ABC985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="2260" windowWidth="32260" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2000" yWindow="2080" windowWidth="32260" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>最多1000个，预留id到1003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>最多1000个，预留id到2003</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -123,6 +119,10 @@
   </si>
   <si>
     <t>最多1000个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多1000个，预留id到1002</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +506,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -689,10 +689,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -710,7 +710,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
